--- a/109下/109下 Excel/Excel 第三次上課/上課/Ch06-01.xlsx
+++ b/109下/109下 Excel/Excel 第三次上課/上課/Ch06-01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Downloads\00 國立空中大學\109下\109下 Excel\Excel 第三次上課\上課\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAN\Documents\GitHub\NationalOpenUniversity\109下\109下 Excel\Excel 第三次上課\上課\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00ED767-FE72-4C22-A3E6-000CC93E1B6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D63DF8-0636-4B5A-A358-534283AFA6DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5568" yWindow="3084" windowWidth="19404" windowHeight="13152" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="說明" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">預算底稿!$A$4:$R$64</definedName>
     <definedName name="會計科目">科目說明!$A$2:$A$26</definedName>
+    <definedName name="員工編號">部門人員!$A$2:$A$5</definedName>
     <definedName name="員工姓名">部門人員!$B$2:$B$5</definedName>
     <definedName name="專案名稱">專案說明!$B$2:$B$30</definedName>
   </definedNames>
@@ -597,10 +598,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>印表機墨水匣</t>
-  </si>
-  <si>
     <t>黃棨捷</t>
+  </si>
+  <si>
+    <t>名片製作</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1451,7 @@
   <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
@@ -1604,21 +1605,21 @@
     </row>
     <row r="5" spans="1:18" s="25" customFormat="1" ht="16.2">
       <c r="A5" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>139</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>138</v>
       </c>
       <c r="C5" s="35" t="str">
         <f>VLOOKUP(B5,專案說明!B2:C30,2,FALSE)</f>
-        <v>P-03</v>
+        <v>P-02</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="36">
         <f>VLOOKUP(D5,科目說明!A1:B26,2,FALSE)</f>
-        <v>6218000</v>
+        <v>6222000</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -3565,7 +3566,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
